--- a/medicine/Sexualité et sexologie/Bruce_Bagemihl/Bruce_Bagemihl.xlsx
+++ b/medicine/Sexualité et sexologie/Bruce_Bagemihl/Bruce_Bagemihl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bruce Bagemihl est un biologiste, sexologue et linguiste canadien né en 1962. Il est principalement connu pour la publication en 1999 de son livre Biological exuberance : animal homosexuality and natural diversity, acclamé par la critique mais aussi controversé puisque parlant de l'homosexualité animale et de la bisexualité animale, alors que l'homosexualité a longtemps été considérée « contre-nature »[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bruce Bagemihl est un biologiste, sexologue et linguiste canadien né en 1962. Il est principalement connu pour la publication en 1999 de son livre Biological exuberance : animal homosexuality and natural diversity, acclamé par la critique mais aussi controversé puisque parlant de l'homosexualité animale et de la bisexualité animale, alors que l'homosexualité a longtemps été considérée « contre-nature ».
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir obtenu un PhD puis travaillé pour l'Université de la Colombie-Britannique ou comme consultant chez Microsoft, il est installé aujourd'hui à Seattle et est l'auteur de nombreux ouvrages sur des sujets aussi divers que la zoologie, l'ethnomusicologie cognitive ou la théorie queer.
 </t>
@@ -542,9 +556,11 @@
           <t>Biological exuberance : animal homosexuality and natural diversity</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bagemihl a travaillé pendant neuf ans sur l'homosexualité animale avant de publier ce livre, considéré à sa sortie comme l'ouvrage le plus complet sur l'homosexualité dans le monde animal[2],[3]. Bien que lui-même homosexuel, il dit ne pas avoir écrit cet ouvrage à cause de ses propres orientations homosexuelles mais parce que les implications humaines étaient énormes. Cela semble s'être vérifié lorsque la cour suprême américaine a mentionné ce livre, en 2003, dans le célèbre cas Lawrence v. Texas qui a conduit à un résultat judiciaire important : les lois anti-sodomie sont depuis considérées dans ce pays comme inconstitutionnelles[4]..
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bagemihl a travaillé pendant neuf ans sur l'homosexualité animale avant de publier ce livre, considéré à sa sortie comme l'ouvrage le plus complet sur l'homosexualité dans le monde animal,. Bien que lui-même homosexuel, il dit ne pas avoir écrit cet ouvrage à cause de ses propres orientations homosexuelles mais parce que les implications humaines étaient énormes. Cela semble s'être vérifié lorsque la cour suprême américaine a mentionné ce livre, en 2003, dans le célèbre cas Lawrence v. Texas qui a conduit à un résultat judiciaire important : les lois anti-sodomie sont depuis considérées dans ce pays comme inconstitutionnelles..
 L'ouvrage a été publié en anglais chez Stonewall Inn Editions  (ISBN 0-312-25377-X).
 </t>
         </is>
